--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Justin_Marie_Macquart/Pierre_Justin_Marie_Macquart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Justin_Marie_Macquart/Pierre_Justin_Marie_Macquart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Justin Marie Macquart est un entomologiste français, né le 8 avril 1778 à Hazebrouck et mort le 25 novembre 1855 à Lille[1].
-Durant la Révolution, il rejoint l’armée du Rhin. De retour en France en 1798, il se consacre à sa passion : l’entomologie. Installé à Lestrem, dont il sera le maire, de 1817 à 1852, puis membre du conseil général du département[2]. Il correspond avec Johann Wilhelm Meigen (1764-1845). Macquart fait paraître les Insectes Diptères du nord de la France de 1828 à 1833. Dans les Suites à Buffon, il rédige les deux volumes consacrés aux diptères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Justin Marie Macquart est un entomologiste français, né le 8 avril 1778 à Hazebrouck et mort le 25 novembre 1855 à Lille.
+Durant la Révolution, il rejoint l’armée du Rhin. De retour en France en 1798, il se consacre à sa passion : l’entomologie. Installé à Lestrem, dont il sera le maire, de 1817 à 1852, puis membre du conseil général du département. Il correspond avec Johann Wilhelm Meigen (1764-1845). Macquart fait paraître les Insectes Diptères du nord de la France de 1828 à 1833. Dans les Suites à Buffon, il rédige les deux volumes consacrés aux diptères.
 Il est élu membre de la Société entomologique de France le 1er août 1832.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quelques ouvrages de Justin Macquart ont été numérisés par Gallica : lire en ligne
 1811. Mémoire sur les plantations dans le département du Nord. Séance Publique de la Société des Sciences de Lille, 4, 116–131.
